--- a/medicine/Œil et vue/Urgence_ophtalmologique/Urgence_ophtalmologique.xlsx
+++ b/medicine/Œil et vue/Urgence_ophtalmologique/Urgence_ophtalmologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les urgences ophtalmologiques sont les pathologies de globe oculaire et de ses annexes d'apparition brutale. Elles sont prises en charge par les ophtalmologues dans des structures dédiées ou au sein des services d'urgences générales.
 </t>
@@ -511,66 +523,241 @@
           <t>Selon leur siège</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les pathologies prises en charge peuvent être d'origine traumatique, infectieuse, inflammatoire ou encore vasculaire. Elles touchent aussi bien les paupières et les voies lacrymales que les différentes structures du globe oculaire.
-Paupières et voies lacrymales
-Plaie de la paupière et / ou du canalicule
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pathologies prises en charge peuvent être d'origine traumatique, infectieuse, inflammatoire ou encore vasculaire. Elles touchent aussi bien les paupières et les voies lacrymales que les différentes structures du globe oculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Selon leur siège</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Paupières et voies lacrymales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plaie de la paupière et / ou du canalicule
 Chalazion : inflammation de la paupière
 Cellulite : infection de la paupière et de l'orbite
 Orgelet : infection d'un cil
 Zona ophtalmique
-Fracture de l'orbite
-Cornée et de la conjonctive
-Ulcere de cornée traumatique ou kératite
+Fracture de l'orbite</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Selon leur siège</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cornée et de la conjonctive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ulcere de cornée traumatique ou kératite
 Abcès de cornée (infection de la cornée)
 Conjonctivite infectieuse ou allergique
 Herpès oculaire : kératite ou uvéite
-Plaie du globe
-Segment antérieur et du cristallin
-Uvéite
+Plaie du globe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Selon leur siège</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Segment antérieur et du cristallin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Uvéite
 Luxation du cristallin ou de l'implant
 Anisocorie : mydriase ou myosis
 Glaucome aigu
-Contusion du globe
-Urgences vitréorétiniennes
-Décollement du vitré
+Contusion du globe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Selon leur siège</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Urgences vitréorétiniennes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Décollement du vitré
 Déchirure de rétine
 Hémorragie du vitré
 Décollement de rétine
-Dégénérescence maculaire liée à l'âge (DMLA]), occlusion de la veine centrale de la rétine (OVCR), néovaisseau maculaire, occlusion de l'artère centrale de la rétine…
-Urgences neuro-ophtalmologiques
-Migraine avec aura
+Dégénérescence maculaire liée à l'âge (DMLA]), occlusion de la veine centrale de la rétine (OVCR), néovaisseau maculaire, occlusion de l'artère centrale de la rétine…</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Selon leur siège</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Urgences neuro-ophtalmologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Migraine avec aura
 Neuropathie optique ischémique antérieure (NOIA) ou névrite optique inflammatoire (NORB)
 Hypertension intracrânienne...</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Urgence_ophtalmologique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année plus de 120 000 patients sont pris en charge pour une urgence ophtalmologique en France. Leur accueil est réparti de la façon suivante :
 service d'urgences publics : 400 000 ;
@@ -581,39 +768,146 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Urgence_ophtalmologique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Structures de soin en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les urgences ophtalmologiques peuvent être gérées en structures spécialisées ou en cabinet sur des plages horaires dédiées. 
-Les urgences spécialisées
-À l'image de l'hôpital national de la vision (anciennement CHNO 15-20) ou de la fondation Rotschild à Paris, les patients peuvent être accueillis 24 h/24 7 j/7 en consultation pour un motif impérieux. Véritables services d'urgences, celles-ci sont classées en fonction de la gravité du motif : plaies de l'œil, suspicion d'AVC... Les services disposent de lits d'hospitalisation et d'un plateau technique au sein même de l'établissement.
-Les urgences généralistes
-Certains hôpitaux intègrent au sein de leur service d'urgences générales, un lieu de consultation destiné aux urgences ophtalmologiques, avec tout le matériel d'examen approprié. L'accueil des urgences peut être réalisé soit par un ophtalmologue, soit par un urgentiste formé. Dans le cas de l'urgentiste formé, le patient peut être réadressé directement dans le service d'ophtalmologie le lendemain pour une expertise plus approfondie.
-Les cabinets spécialisés
-Certains cabinets bénéficient d'une organisation spécifique afin de pouvoir recevoir les patients avec ou sans rendez-vous sur des plages horaires étendues. Les cabinets sont généralement rattachés à une structure de soins chirurgicale (clinique) afin de pouvoir prendre en charge les patients de manière globale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Structures de soin en France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les urgences spécialisées</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'image de l'hôpital national de la vision (anciennement CHNO 15-20) ou de la fondation Rotschild à Paris, les patients peuvent être accueillis 24 h/24 7 j/7 en consultation pour un motif impérieux. Véritables services d'urgences, celles-ci sont classées en fonction de la gravité du motif : plaies de l'œil, suspicion d'AVC... Les services disposent de lits d'hospitalisation et d'un plateau technique au sein même de l'établissement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Structures de soin en France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les urgences généralistes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains hôpitaux intègrent au sein de leur service d'urgences générales, un lieu de consultation destiné aux urgences ophtalmologiques, avec tout le matériel d'examen approprié. L'accueil des urgences peut être réalisé soit par un ophtalmologue, soit par un urgentiste formé. Dans le cas de l'urgentiste formé, le patient peut être réadressé directement dans le service d'ophtalmologie le lendemain pour une expertise plus approfondie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urgence_ophtalmologique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Structures de soin en France</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les cabinets spécialisés</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains cabinets bénéficient d'une organisation spécifique afin de pouvoir recevoir les patients avec ou sans rendez-vous sur des plages horaires étendues. Les cabinets sont généralement rattachés à une structure de soins chirurgicale (clinique) afin de pouvoir prendre en charge les patients de manière globale.
 </t>
         </is>
       </c>
